--- a/Code/Results/Cases/Case_5_141/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_141/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.057673713575525</v>
+        <v>0.447159934046681</v>
       </c>
       <c r="C2">
-        <v>0.3011234946461059</v>
+        <v>0.1183654977517392</v>
       </c>
       <c r="D2">
-        <v>0.03783655358034821</v>
+        <v>0.05647233328883239</v>
       </c>
       <c r="E2">
-        <v>0.2818571238963372</v>
+        <v>0.1211252422109226</v>
       </c>
       <c r="F2">
-        <v>1.283891771342638</v>
+        <v>1.450653168606735</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7336228427952349</v>
+        <v>1.012805003001837</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.337560461161956</v>
+        <v>0.5539443074843007</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6897738468679933</v>
+        <v>0.2907387100251597</v>
       </c>
       <c r="N2">
-        <v>1.268493491175349</v>
+        <v>2.175246244320618</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9149386177827807</v>
+        <v>0.4095024174870048</v>
       </c>
       <c r="C3">
-        <v>0.2600736923449745</v>
+        <v>0.1075380643835331</v>
       </c>
       <c r="D3">
-        <v>0.03878756001519967</v>
+        <v>0.05652549211420244</v>
       </c>
       <c r="E3">
-        <v>0.2438309535715391</v>
+        <v>0.1114079124986631</v>
       </c>
       <c r="F3">
-        <v>1.186244200143463</v>
+        <v>1.432167997306735</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6982250075537806</v>
+        <v>1.008086454538415</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.156554221414183</v>
+        <v>0.5062130379695304</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5962925634221605</v>
+        <v>0.2664624142609497</v>
       </c>
       <c r="N3">
-        <v>1.290280075358908</v>
+        <v>2.185885919413586</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8282028027473984</v>
+        <v>0.3865995802258908</v>
       </c>
       <c r="C4">
-        <v>0.2352381972589654</v>
+        <v>0.1009493183563563</v>
       </c>
       <c r="D4">
-        <v>0.03937220458547941</v>
+        <v>0.05655676561888257</v>
       </c>
       <c r="E4">
-        <v>0.2209378446500665</v>
+        <v>0.105515144135552</v>
       </c>
       <c r="F4">
-        <v>1.128536757371194</v>
+        <v>1.421597236561666</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6777726097143102</v>
+        <v>1.005664435391168</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.046687022293128</v>
+        <v>0.4771790985441271</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5397529163166723</v>
+        <v>0.2517154666154795</v>
       </c>
       <c r="N4">
-        <v>1.305340407183891</v>
+        <v>2.193064949504098</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7930528661470078</v>
+        <v>0.3773215009832143</v>
       </c>
       <c r="C5">
-        <v>0.2251979638051722</v>
+        <v>0.09827912791155313</v>
       </c>
       <c r="D5">
-        <v>0.03961071915406222</v>
+        <v>0.05656917047832444</v>
       </c>
       <c r="E5">
-        <v>0.2117087584853934</v>
+        <v>0.103132072231908</v>
       </c>
       <c r="F5">
-        <v>1.105541816594496</v>
+        <v>1.417485132810867</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6697385235265259</v>
+        <v>1.004796747489628</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.002191003351214</v>
+        <v>0.4654160143265642</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5169001971829417</v>
+        <v>0.2457455522015977</v>
       </c>
       <c r="N5">
-        <v>1.311881510575162</v>
+        <v>2.196152724653381</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7872271733018295</v>
+        <v>0.3757842039003663</v>
       </c>
       <c r="C6">
-        <v>0.2235353021372219</v>
+        <v>0.09783663311780799</v>
       </c>
       <c r="D6">
-        <v>0.03965034303588766</v>
+        <v>0.05657120992673725</v>
       </c>
       <c r="E6">
-        <v>0.2101819169258405</v>
+        <v>0.1027374615083048</v>
       </c>
       <c r="F6">
-        <v>1.101753776645296</v>
+        <v>1.416814122139456</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6684220015265154</v>
+        <v>1.004659868909279</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9948179006203475</v>
+        <v>0.4634668927290591</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5131160681001035</v>
+        <v>0.244756633405359</v>
       </c>
       <c r="N6">
-        <v>1.312991509153143</v>
+        <v>2.196675240725632</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.827728006773242</v>
+        <v>0.3864742301406352</v>
       </c>
       <c r="C7">
-        <v>0.2351024812691804</v>
+        <v>0.1009132475935388</v>
       </c>
       <c r="D7">
-        <v>0.03937542007831851</v>
+        <v>0.05655693428415631</v>
       </c>
       <c r="E7">
-        <v>0.2208129911707815</v>
+        <v>0.1054829315197665</v>
       </c>
       <c r="F7">
-        <v>1.128224584928702</v>
+        <v>1.421540987946074</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6776630706999001</v>
+        <v>1.005652250639848</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.046085872789746</v>
+        <v>0.4770201804957424</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5394439925676622</v>
+        <v>0.2516347944289876</v>
       </c>
       <c r="N7">
-        <v>1.30542701205124</v>
+        <v>2.193105935653193</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.008251183927001</v>
+        <v>0.4341301106048832</v>
       </c>
       <c r="C8">
-        <v>0.2868851200499023</v>
+        <v>0.1146197913980131</v>
       </c>
       <c r="D8">
-        <v>0.0381643606744877</v>
+        <v>0.05649094849302827</v>
       </c>
       <c r="E8">
-        <v>0.2686422272874154</v>
+        <v>0.1177592505251539</v>
       </c>
       <c r="F8">
-        <v>1.249728678205116</v>
+        <v>1.444117522820079</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7211378971467965</v>
+        <v>1.011079306099063</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.274858188055504</v>
+        <v>0.5374296969102943</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6573457618016292</v>
+        <v>0.2823350696117899</v>
       </c>
       <c r="N8">
-        <v>1.275644046935639</v>
+        <v>2.178780536494799</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.370994175139288</v>
+        <v>0.5293293384286244</v>
       </c>
       <c r="C9">
-        <v>0.391973404288251</v>
+        <v>0.1419771266247949</v>
       </c>
       <c r="D9">
-        <v>0.03579159197800053</v>
+        <v>0.05635052502602633</v>
       </c>
       <c r="E9">
-        <v>0.3667585071358204</v>
+        <v>0.1424307895993593</v>
       </c>
       <c r="F9">
-        <v>1.508002713106961</v>
+        <v>1.49459365715083</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8176395704078203</v>
+        <v>1.025502279070807</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.735733474727226</v>
+        <v>0.6580778015864439</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8967505909573035</v>
+        <v>0.3438170289361366</v>
       </c>
       <c r="N9">
-        <v>1.231543466059435</v>
+        <v>2.155826967318575</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.645222134147303</v>
+        <v>0.6003559906597786</v>
       </c>
       <c r="C10">
-        <v>0.4722824131828247</v>
+        <v>0.1623816424976781</v>
       </c>
       <c r="D10">
-        <v>0.03404506628171866</v>
+        <v>0.05624038460955028</v>
       </c>
       <c r="E10">
-        <v>0.4425772372492531</v>
+        <v>0.1609409972826086</v>
       </c>
       <c r="F10">
-        <v>1.71325268378456</v>
+        <v>1.535495407624055</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8970360679089353</v>
+        <v>1.038420108519325</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.085126227976986</v>
+        <v>0.7480834786603054</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.079774823196743</v>
+        <v>0.389798283343481</v>
       </c>
       <c r="N10">
-        <v>1.20930607360765</v>
+        <v>2.142111173269996</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.772246337798236</v>
+        <v>0.6329078513584818</v>
       </c>
       <c r="C11">
-        <v>0.5097257727825877</v>
+        <v>0.1717334078408044</v>
       </c>
       <c r="D11">
-        <v>0.03324904200942314</v>
+        <v>0.05618871546058024</v>
       </c>
       <c r="E11">
-        <v>0.4781560761979193</v>
+        <v>0.1694495231298774</v>
       </c>
       <c r="F11">
-        <v>1.810811513142625</v>
+        <v>1.554939478887007</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9354085427623033</v>
+        <v>1.04480457637279</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.247241897063162</v>
+        <v>0.7893337248197554</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.165120602099407</v>
+        <v>0.4108993008220665</v>
       </c>
       <c r="N11">
-        <v>1.201757467006502</v>
+        <v>2.136558583585753</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.82072933869668</v>
+        <v>0.6452693322060554</v>
       </c>
       <c r="C12">
-        <v>0.524057482527013</v>
+        <v>0.1752848905521773</v>
       </c>
       <c r="D12">
-        <v>0.03294734767516694</v>
+        <v>0.0561689210750913</v>
       </c>
       <c r="E12">
-        <v>0.4918113918743572</v>
+        <v>0.1726844711147137</v>
       </c>
       <c r="F12">
-        <v>1.848433265542738</v>
+        <v>1.562423431925922</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9503014314491907</v>
+        <v>1.047295532701796</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.309163919406274</v>
+        <v>0.8049985816886362</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.197788843095893</v>
+        <v>0.4189166185275184</v>
       </c>
       <c r="N12">
-        <v>1.199302176147498</v>
+        <v>2.134555017945246</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.81026975564879</v>
+        <v>0.6426055172895815</v>
       </c>
       <c r="C13">
-        <v>0.520963727150189</v>
+        <v>0.1745195602853471</v>
       </c>
       <c r="D13">
-        <v>0.03301233481829158</v>
+        <v>0.05617319435787138</v>
       </c>
       <c r="E13">
-        <v>0.488861920293985</v>
+        <v>0.171987186581454</v>
       </c>
       <c r="F13">
-        <v>1.840299284988248</v>
+        <v>1.560806244203661</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9470772329079438</v>
+        <v>1.046755797007052</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.295802936328528</v>
+        <v>0.8016229008925393</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.190736755279104</v>
+        <v>0.4171887468803703</v>
       </c>
       <c r="N13">
-        <v>1.199812453080114</v>
+        <v>2.134982109923968</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.776227082560354</v>
+        <v>0.6339241399982996</v>
       </c>
       <c r="C14">
-        <v>0.5109016569687128</v>
+        <v>0.1720253856929617</v>
       </c>
       <c r="D14">
-        <v>0.03322422675030623</v>
+        <v>0.05618709155979218</v>
       </c>
       <c r="E14">
-        <v>0.4792756933792717</v>
+        <v>0.1697154030222663</v>
       </c>
       <c r="F14">
-        <v>1.813892619427392</v>
+        <v>1.555552762486087</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9366263023298629</v>
+        <v>1.045008038511881</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.252325127987007</v>
+        <v>0.7906215930505596</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.167800927471411</v>
+        <v>0.4115583507014762</v>
       </c>
       <c r="N14">
-        <v>1.201547179950836</v>
+        <v>2.136391761487332</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.755426377767748</v>
+        <v>0.6286110796556557</v>
       </c>
       <c r="C15">
-        <v>0.504758925133757</v>
+        <v>0.1704989611276062</v>
       </c>
       <c r="D15">
-        <v>0.03335398232611197</v>
+        <v>0.05619557415973553</v>
       </c>
       <c r="E15">
-        <v>0.4734284217057123</v>
+        <v>0.1683255653134026</v>
       </c>
       <c r="F15">
-        <v>1.79780850138512</v>
+        <v>1.552350612142249</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9302731483118478</v>
+        <v>1.043947038422985</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.225765424486497</v>
+        <v>0.7838887489484705</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.153799167044575</v>
+        <v>0.408113074421486</v>
       </c>
       <c r="N15">
-        <v>1.202663331575394</v>
+        <v>2.13726812641454</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.636971132478237</v>
+        <v>0.5982335153716178</v>
       </c>
       <c r="C16">
-        <v>0.4698555322409561</v>
+        <v>0.1617718975122955</v>
       </c>
       <c r="D16">
-        <v>0.03409705407077368</v>
+        <v>0.0562437295211069</v>
       </c>
       <c r="E16">
-        <v>0.4402761244431588</v>
+        <v>0.1603867425453345</v>
       </c>
       <c r="F16">
-        <v>1.706967600158535</v>
+        <v>1.534241586109516</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8945768523784423</v>
+        <v>1.038013112491363</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.074601778421027</v>
+        <v>0.7453938611702426</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.074243386488213</v>
+        <v>0.3884230149123979</v>
       </c>
       <c r="N16">
-        <v>1.209853880485724</v>
+        <v>2.142487895312769</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.564922698857174</v>
+        <v>0.5796597633303975</v>
       </c>
       <c r="C17">
-        <v>0.4486913981210989</v>
+        <v>0.1564360763944137</v>
       </c>
       <c r="D17">
-        <v>0.03455248253603393</v>
+        <v>0.05627286787396812</v>
       </c>
       <c r="E17">
-        <v>0.4202345572738295</v>
+        <v>0.1555393047417652</v>
       </c>
       <c r="F17">
-        <v>1.652364284910334</v>
+        <v>1.523347149060896</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8732815169363519</v>
+        <v>1.03450313970545</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.982732492333582</v>
+        <v>0.7218570996028006</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.026006642097613</v>
+        <v>0.3763911707498835</v>
       </c>
       <c r="N17">
-        <v>1.214945691959059</v>
+        <v>2.145866184696715</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.523693060091603</v>
+        <v>0.568999357085346</v>
       </c>
       <c r="C18">
-        <v>0.4366026012071131</v>
+        <v>0.153373599422082</v>
       </c>
       <c r="D18">
-        <v>0.03481429119586998</v>
+        <v>0.05628948028958725</v>
       </c>
       <c r="E18">
-        <v>0.408807924235397</v>
+        <v>0.1527594659934195</v>
       </c>
       <c r="F18">
-        <v>1.621347265311087</v>
+        <v>1.517159774224538</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8612427321418821</v>
+        <v>1.032532105045796</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.930185594703858</v>
+        <v>0.7083481837056809</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9984553302918897</v>
+        <v>0.36948806054356</v>
       </c>
       <c r="N18">
-        <v>1.218113773630236</v>
+        <v>2.147873912245288</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.509768036507097</v>
+        <v>0.565393827520694</v>
       </c>
       <c r="C19">
-        <v>0.4325233858877766</v>
+        <v>0.1523378169046055</v>
       </c>
       <c r="D19">
-        <v>0.03490291219986119</v>
+        <v>0.05629507979064208</v>
       </c>
       <c r="E19">
-        <v>0.404955624760305</v>
+        <v>0.1518196738464326</v>
       </c>
       <c r="F19">
-        <v>1.610910121940478</v>
+        <v>1.515078358710284</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8572015369083985</v>
+        <v>1.031872950681176</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.91244241057646</v>
+        <v>0.7037792369341105</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9891586865045809</v>
+        <v>0.3671537439954662</v>
       </c>
       <c r="N19">
-        <v>1.219226570990088</v>
+        <v>2.148564784034392</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.572570193394228</v>
+        <v>0.5816346185085024</v>
       </c>
       <c r="C20">
-        <v>0.4509354858701329</v>
+        <v>0.1570034050243407</v>
       </c>
       <c r="D20">
-        <v>0.03450401639983447</v>
+        <v>0.05626978130382199</v>
       </c>
       <c r="E20">
-        <v>0.4223574113861162</v>
+        <v>0.1560544638830592</v>
       </c>
       <c r="F20">
-        <v>1.658136078465418</v>
+        <v>1.524498719941818</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8755264737781161</v>
+        <v>1.034871832562715</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.992481194643176</v>
+        <v>0.7243596448546725</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.031121189900375</v>
+        <v>0.3776701891325089</v>
       </c>
       <c r="N20">
-        <v>1.21437864722634</v>
+        <v>2.145499869281167</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.786215420927192</v>
+        <v>0.6364731259482994</v>
       </c>
       <c r="C21">
-        <v>0.5138528003921579</v>
+        <v>0.1727577079044806</v>
       </c>
       <c r="D21">
-        <v>0.03316199615709792</v>
+        <v>0.05618301583697871</v>
       </c>
       <c r="E21">
-        <v>0.4820862300297932</v>
+        <v>0.1703823271179061</v>
       </c>
       <c r="F21">
-        <v>1.821629842994838</v>
+        <v>1.557092552459963</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9396858461516899</v>
+        <v>1.045519406400658</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.26508052343496</v>
+        <v>0.793851739961525</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.174527825069944</v>
+        <v>0.4132114036494912</v>
       </c>
       <c r="N21">
-        <v>1.201026416347915</v>
+        <v>2.135975021091966</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.928099111982476</v>
+        <v>0.6725161247629785</v>
       </c>
       <c r="C22">
-        <v>0.5558749817220132</v>
+        <v>0.1831134204099101</v>
       </c>
       <c r="D22">
-        <v>0.03228340414357689</v>
+        <v>0.05612497694883167</v>
       </c>
       <c r="E22">
-        <v>0.5221997373554501</v>
+        <v>0.1798220506826311</v>
       </c>
       <c r="F22">
-        <v>1.932477486690445</v>
+        <v>1.579099447477773</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9837486293294404</v>
+        <v>1.052905553272126</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.446383891350393</v>
+        <v>0.8395270819161738</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.270317396514258</v>
+        <v>0.4365961474293414</v>
       </c>
       <c r="N22">
-        <v>1.19466866493633</v>
+        <v>2.130327645275216</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.852147404857732</v>
+        <v>0.6532607107407955</v>
       </c>
       <c r="C23">
-        <v>0.5333565683791903</v>
+        <v>0.1775808976678377</v>
       </c>
       <c r="D23">
-        <v>0.03275247098870082</v>
+        <v>0.05615607635110997</v>
       </c>
       <c r="E23">
-        <v>0.500682496241339</v>
+        <v>0.1747768788225343</v>
       </c>
       <c r="F23">
-        <v>1.872923272750327</v>
+        <v>1.567289300948943</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9600229408072636</v>
+        <v>1.048924247357604</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.349304041537437</v>
+        <v>0.8151255790032224</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.218985930031209</v>
+        <v>0.4241008248648797</v>
       </c>
       <c r="N23">
-        <v>1.197832953291027</v>
+        <v>2.133288793090955</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.569112167221306</v>
+        <v>0.5807417307613321</v>
       </c>
       <c r="C24">
-        <v>0.4499206901423634</v>
+        <v>0.1567468996993853</v>
       </c>
       <c r="D24">
-        <v>0.03452592800929288</v>
+        <v>0.0562711771759119</v>
       </c>
       <c r="E24">
-        <v>0.4213973734012697</v>
+        <v>0.1558215386016499</v>
       </c>
       <c r="F24">
-        <v>1.655525487717128</v>
+        <v>1.523977858088699</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8745108956048426</v>
+        <v>1.034705000452433</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.988072971032466</v>
+        <v>0.7232281735190895</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.028808343875411</v>
+        <v>0.3770919008587299</v>
       </c>
       <c r="N24">
-        <v>1.214634260853003</v>
+        <v>2.145665276436716</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.271692959506566</v>
+        <v>0.5033865067819079</v>
       </c>
       <c r="C25">
-        <v>0.3630732197760835</v>
+        <v>0.134523623584613</v>
       </c>
       <c r="D25">
-        <v>0.03643376273377186</v>
+        <v>0.05638972030311606</v>
       </c>
       <c r="E25">
-        <v>0.3396459313289526</v>
+        <v>0.1356904722248728</v>
       </c>
       <c r="F25">
-        <v>1.435668467840856</v>
+        <v>1.480270782167182</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7901689464714892</v>
+        <v>1.021194050073603</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.609418409325315</v>
+        <v>0.6252019211409561</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8308992641546169</v>
+        <v>0.3270444468714686</v>
       </c>
       <c r="N25">
-        <v>1.241801855896441</v>
+        <v>2.161484806251352</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_141/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_141/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.447159934046681</v>
+        <v>1.057673713575525</v>
       </c>
       <c r="C2">
-        <v>0.1183654977517392</v>
+        <v>0.3011234946461059</v>
       </c>
       <c r="D2">
-        <v>0.05647233328883239</v>
+        <v>0.03783655358045479</v>
       </c>
       <c r="E2">
-        <v>0.1211252422109226</v>
+        <v>0.2818571238963017</v>
       </c>
       <c r="F2">
-        <v>1.450653168606735</v>
+        <v>1.283891771342638</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.012805003001837</v>
+        <v>0.7336228427952278</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5539443074843007</v>
+        <v>1.337560461161928</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2907387100251597</v>
+        <v>0.6897738468679933</v>
       </c>
       <c r="N2">
-        <v>2.175246244320618</v>
+        <v>1.268493491175349</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4095024174870048</v>
+        <v>0.9149386177828092</v>
       </c>
       <c r="C3">
-        <v>0.1075380643835331</v>
+        <v>0.2600736923448324</v>
       </c>
       <c r="D3">
-        <v>0.05652549211420244</v>
+        <v>0.03878756001523342</v>
       </c>
       <c r="E3">
-        <v>0.1114079124986631</v>
+        <v>0.2438309535715462</v>
       </c>
       <c r="F3">
-        <v>1.432167997306735</v>
+        <v>1.186244200143491</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.008086454538415</v>
+        <v>0.6982250075537877</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5062130379695304</v>
+        <v>1.156554221414154</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2664624142609497</v>
+        <v>0.5962925634221605</v>
       </c>
       <c r="N3">
-        <v>2.185885919413586</v>
+        <v>1.29028007535895</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3865995802258908</v>
+        <v>0.8282028027474553</v>
       </c>
       <c r="C4">
-        <v>0.1009493183563563</v>
+        <v>0.2352381972589797</v>
       </c>
       <c r="D4">
-        <v>0.05655676561888257</v>
+        <v>0.03937220458546875</v>
       </c>
       <c r="E4">
-        <v>0.105515144135552</v>
+        <v>0.2209378446500523</v>
       </c>
       <c r="F4">
-        <v>1.421597236561666</v>
+        <v>1.128536757371208</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.005664435391168</v>
+        <v>0.6777726097143102</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4771790985441271</v>
+        <v>1.046687022293185</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2517154666154795</v>
+        <v>0.5397529163166581</v>
       </c>
       <c r="N4">
-        <v>2.193064949504098</v>
+        <v>1.305340407183898</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3773215009832143</v>
+        <v>0.7930528661470362</v>
       </c>
       <c r="C5">
-        <v>0.09827912791155313</v>
+        <v>0.2251979638052148</v>
       </c>
       <c r="D5">
-        <v>0.05656917047832444</v>
+        <v>0.03961071915404268</v>
       </c>
       <c r="E5">
-        <v>0.103132072231908</v>
+        <v>0.2117087584853934</v>
       </c>
       <c r="F5">
-        <v>1.417485132810867</v>
+        <v>1.105541816594481</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.004796747489628</v>
+        <v>0.6697385235265116</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4654160143265642</v>
+        <v>1.002191003351157</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2457455522015977</v>
+        <v>0.5169001971829417</v>
       </c>
       <c r="N5">
-        <v>2.196152724653381</v>
+        <v>1.311881510575141</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3757842039003663</v>
+        <v>0.7872271733016873</v>
       </c>
       <c r="C6">
-        <v>0.09783663311780799</v>
+        <v>0.2235353021371083</v>
       </c>
       <c r="D6">
-        <v>0.05657120992673725</v>
+        <v>0.03965034303600312</v>
       </c>
       <c r="E6">
-        <v>0.1027374615083048</v>
+        <v>0.2101819169258405</v>
       </c>
       <c r="F6">
-        <v>1.416814122139456</v>
+        <v>1.101753776645282</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.004659868909279</v>
+        <v>0.6684220015265225</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4634668927290591</v>
+        <v>0.9948179006203191</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.244756633405359</v>
+        <v>0.5131160681000964</v>
       </c>
       <c r="N6">
-        <v>2.196675240725632</v>
+        <v>1.312991509153136</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3864742301406352</v>
+        <v>0.8277280067730999</v>
       </c>
       <c r="C7">
-        <v>0.1009132475935388</v>
+        <v>0.2351024812692799</v>
       </c>
       <c r="D7">
-        <v>0.05655693428415631</v>
+        <v>0.03937542007831318</v>
       </c>
       <c r="E7">
-        <v>0.1054829315197665</v>
+        <v>0.2208129911707744</v>
       </c>
       <c r="F7">
-        <v>1.421540987946074</v>
+        <v>1.128224584928731</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.005652250639848</v>
+        <v>0.6776630706999143</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4770201804957424</v>
+        <v>1.046085872789689</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2516347944289876</v>
+        <v>0.5394439925676622</v>
       </c>
       <c r="N7">
-        <v>2.193105935653193</v>
+        <v>1.305427012051169</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4341301106048832</v>
+        <v>1.008251183926944</v>
       </c>
       <c r="C8">
-        <v>0.1146197913980131</v>
+        <v>0.2868851200501581</v>
       </c>
       <c r="D8">
-        <v>0.05649094849302827</v>
+        <v>0.03816436067467244</v>
       </c>
       <c r="E8">
-        <v>0.1177592505251539</v>
+        <v>0.2686422272874296</v>
       </c>
       <c r="F8">
-        <v>1.444117522820079</v>
+        <v>1.249728678205116</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.011079306099063</v>
+        <v>0.7211378971467965</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5374296969102943</v>
+        <v>1.274858188055475</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2823350696117899</v>
+        <v>0.6573457618016292</v>
       </c>
       <c r="N8">
-        <v>2.178780536494799</v>
+        <v>1.275644046935668</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5293293384286244</v>
+        <v>1.370994175139288</v>
       </c>
       <c r="C9">
-        <v>0.1419771266247949</v>
+        <v>0.391973404288251</v>
       </c>
       <c r="D9">
-        <v>0.05635052502602633</v>
+        <v>0.03579159197809112</v>
       </c>
       <c r="E9">
-        <v>0.1424307895993593</v>
+        <v>0.3667585071358204</v>
       </c>
       <c r="F9">
-        <v>1.49459365715083</v>
+        <v>1.508002713106961</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.025502279070807</v>
+        <v>0.8176395704078132</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6580778015864439</v>
+        <v>1.735733474727169</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3438170289361366</v>
+        <v>0.8967505909573106</v>
       </c>
       <c r="N9">
-        <v>2.155826967318575</v>
+        <v>1.231543466059435</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6003559906597786</v>
+        <v>1.645222134147446</v>
       </c>
       <c r="C10">
-        <v>0.1623816424976781</v>
+        <v>0.4722824131827963</v>
       </c>
       <c r="D10">
-        <v>0.05624038460955028</v>
+        <v>0.03404506628162096</v>
       </c>
       <c r="E10">
-        <v>0.1609409972826086</v>
+        <v>0.4425772372492176</v>
       </c>
       <c r="F10">
-        <v>1.535495407624055</v>
+        <v>1.713252683784575</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.038420108519325</v>
+        <v>0.8970360679089211</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7480834786603054</v>
+        <v>2.085126227976986</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.389798283343481</v>
+        <v>1.079774823196736</v>
       </c>
       <c r="N10">
-        <v>2.142111173269996</v>
+        <v>1.209306073607635</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6329078513584818</v>
+        <v>1.772246337798236</v>
       </c>
       <c r="C11">
-        <v>0.1717334078408044</v>
+        <v>0.5097257727823319</v>
       </c>
       <c r="D11">
-        <v>0.05618871546058024</v>
+        <v>0.03324904200932011</v>
       </c>
       <c r="E11">
-        <v>0.1694495231298774</v>
+        <v>0.4781560761979193</v>
       </c>
       <c r="F11">
-        <v>1.554939478887007</v>
+        <v>1.81081151314261</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.04480457637279</v>
+        <v>0.9354085427622962</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7893337248197554</v>
+        <v>2.247241897063248</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4108993008220665</v>
+        <v>1.165120602099428</v>
       </c>
       <c r="N11">
-        <v>2.136558583585753</v>
+        <v>1.201757467006402</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6452693322060554</v>
+        <v>1.820729338696566</v>
       </c>
       <c r="C12">
-        <v>0.1752848905521773</v>
+        <v>0.5240574825267572</v>
       </c>
       <c r="D12">
-        <v>0.0561689210750913</v>
+        <v>0.03294734767496266</v>
       </c>
       <c r="E12">
-        <v>0.1726844711147137</v>
+        <v>0.4918113918743572</v>
       </c>
       <c r="F12">
-        <v>1.562423431925922</v>
+        <v>1.848433265542752</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.047295532701796</v>
+        <v>0.9503014314491907</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8049985816886362</v>
+        <v>2.309163919406302</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4189166185275184</v>
+        <v>1.197788843095893</v>
       </c>
       <c r="N12">
-        <v>2.134555017945246</v>
+        <v>1.199302176147455</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6426055172895815</v>
+        <v>1.810269755648761</v>
       </c>
       <c r="C13">
-        <v>0.1745195602853471</v>
+        <v>0.5209637271501038</v>
       </c>
       <c r="D13">
-        <v>0.05617319435787138</v>
+        <v>0.03301233481839461</v>
       </c>
       <c r="E13">
-        <v>0.171987186581454</v>
+        <v>0.4888619202940134</v>
       </c>
       <c r="F13">
-        <v>1.560806244203661</v>
+        <v>1.840299284988234</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.046755797007052</v>
+        <v>0.9470772329079509</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8016229008925393</v>
+        <v>2.295802936328414</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4171887468803703</v>
+        <v>1.190736755279104</v>
       </c>
       <c r="N13">
-        <v>2.134982109923968</v>
+        <v>1.199812453080114</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6339241399982996</v>
+        <v>1.776227082560467</v>
       </c>
       <c r="C14">
-        <v>0.1720253856929617</v>
+        <v>0.5109016569685991</v>
       </c>
       <c r="D14">
-        <v>0.05618709155979218</v>
+        <v>0.0332242267502032</v>
       </c>
       <c r="E14">
-        <v>0.1697154030222663</v>
+        <v>0.479275693379293</v>
       </c>
       <c r="F14">
-        <v>1.555552762486087</v>
+        <v>1.813892619427406</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.045008038511881</v>
+        <v>0.9366263023298771</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7906215930505596</v>
+        <v>2.252325127987007</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4115583507014762</v>
+        <v>1.16780092747144</v>
       </c>
       <c r="N14">
-        <v>2.136391761487332</v>
+        <v>1.201547179950836</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6286110796556557</v>
+        <v>1.755426377767776</v>
       </c>
       <c r="C15">
-        <v>0.1704989611276062</v>
+        <v>0.5047589251337286</v>
       </c>
       <c r="D15">
-        <v>0.05619557415973553</v>
+        <v>0.03335398232600184</v>
       </c>
       <c r="E15">
-        <v>0.1683255653134026</v>
+        <v>0.4734284217057123</v>
       </c>
       <c r="F15">
-        <v>1.552350612142249</v>
+        <v>1.797808501385134</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.043947038422985</v>
+        <v>0.9302731483118265</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7838887489484705</v>
+        <v>2.225765424486582</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.408113074421486</v>
+        <v>1.153799167044568</v>
       </c>
       <c r="N15">
-        <v>2.13726812641454</v>
+        <v>1.202663331575394</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5982335153716178</v>
+        <v>1.636971132478351</v>
       </c>
       <c r="C16">
-        <v>0.1617718975122955</v>
+        <v>0.4698555322410698</v>
       </c>
       <c r="D16">
-        <v>0.0562437295211069</v>
+        <v>0.03409705407075236</v>
       </c>
       <c r="E16">
-        <v>0.1603867425453345</v>
+        <v>0.4402761244431943</v>
       </c>
       <c r="F16">
-        <v>1.534241586109516</v>
+        <v>1.706967600158549</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.038013112491363</v>
+        <v>0.8945768523784352</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7453938611702426</v>
+        <v>2.07460177842097</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3884230149123979</v>
+        <v>1.074243386488241</v>
       </c>
       <c r="N16">
-        <v>2.142487895312769</v>
+        <v>1.209853880485767</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5796597633303975</v>
+        <v>1.564922698857288</v>
       </c>
       <c r="C17">
-        <v>0.1564360763944137</v>
+        <v>0.4486913981211273</v>
       </c>
       <c r="D17">
-        <v>0.05627286787396812</v>
+        <v>0.03455248253614585</v>
       </c>
       <c r="E17">
-        <v>0.1555393047417652</v>
+        <v>0.4202345572738366</v>
       </c>
       <c r="F17">
-        <v>1.523347149060896</v>
+        <v>1.65236428491032</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.03450313970545</v>
+        <v>0.8732815169363519</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7218570996028006</v>
+        <v>1.982732492333582</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3763911707498835</v>
+        <v>1.026006642097599</v>
       </c>
       <c r="N17">
-        <v>2.145866184696715</v>
+        <v>1.214945691959073</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.568999357085346</v>
+        <v>1.523693060091375</v>
       </c>
       <c r="C18">
-        <v>0.153373599422082</v>
+        <v>0.436602601206971</v>
       </c>
       <c r="D18">
-        <v>0.05628948028958725</v>
+        <v>0.03481429119586821</v>
       </c>
       <c r="E18">
-        <v>0.1527594659934195</v>
+        <v>0.408807924235397</v>
       </c>
       <c r="F18">
-        <v>1.517159774224538</v>
+        <v>1.621347265311115</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.032532105045796</v>
+        <v>0.8612427321419105</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7083481837056809</v>
+        <v>1.930185594703971</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.36948806054356</v>
+        <v>0.9984553302918968</v>
       </c>
       <c r="N18">
-        <v>2.147873912245288</v>
+        <v>1.218113773630265</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.565393827520694</v>
+        <v>1.509768036507069</v>
       </c>
       <c r="C19">
-        <v>0.1523378169046055</v>
+        <v>0.432523385887805</v>
       </c>
       <c r="D19">
-        <v>0.05629507979064208</v>
+        <v>0.03490291219988784</v>
       </c>
       <c r="E19">
-        <v>0.1518196738464326</v>
+        <v>0.4049556247602766</v>
       </c>
       <c r="F19">
-        <v>1.515078358710284</v>
+        <v>1.610910121940449</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.031872950681176</v>
+        <v>0.8572015369084056</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7037792369341105</v>
+        <v>1.912442410576546</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3671537439954662</v>
+        <v>0.9891586865045738</v>
       </c>
       <c r="N19">
-        <v>2.148564784034392</v>
+        <v>1.219226570990088</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5816346185085024</v>
+        <v>1.572570193394171</v>
       </c>
       <c r="C20">
-        <v>0.1570034050243407</v>
+        <v>0.4509354858701329</v>
       </c>
       <c r="D20">
-        <v>0.05626978130382199</v>
+        <v>0.03450401639973677</v>
       </c>
       <c r="E20">
-        <v>0.1560544638830592</v>
+        <v>0.4223574113860664</v>
       </c>
       <c r="F20">
-        <v>1.524498719941818</v>
+        <v>1.658136078465404</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.034871832562715</v>
+        <v>0.8755264737781232</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7243596448546725</v>
+        <v>1.99248119464329</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3776701891325089</v>
+        <v>1.031121189900375</v>
       </c>
       <c r="N20">
-        <v>2.145499869281167</v>
+        <v>1.214378647226269</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6364731259482994</v>
+        <v>1.786215420927249</v>
       </c>
       <c r="C21">
-        <v>0.1727577079044806</v>
+        <v>0.5138528003922715</v>
       </c>
       <c r="D21">
-        <v>0.05618301583697871</v>
+        <v>0.03316199615690607</v>
       </c>
       <c r="E21">
-        <v>0.1703823271179061</v>
+        <v>0.4820862300298714</v>
       </c>
       <c r="F21">
-        <v>1.557092552459963</v>
+        <v>1.821629842994852</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.045519406400658</v>
+        <v>0.939685846151697</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.793851739961525</v>
+        <v>2.265080523434875</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4132114036494912</v>
+        <v>1.174527825069937</v>
       </c>
       <c r="N21">
-        <v>2.135975021091966</v>
+        <v>1.201026416347958</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6725161247629785</v>
+        <v>1.928099111982334</v>
       </c>
       <c r="C22">
-        <v>0.1831134204099101</v>
+        <v>0.5558749817218427</v>
       </c>
       <c r="D22">
-        <v>0.05612497694883167</v>
+        <v>0.03228340414348096</v>
       </c>
       <c r="E22">
-        <v>0.1798220506826311</v>
+        <v>0.5221997373554288</v>
       </c>
       <c r="F22">
-        <v>1.579099447477773</v>
+        <v>1.932477486690445</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.052905553272126</v>
+        <v>0.9837486293294404</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8395270819161738</v>
+        <v>2.446383891350536</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4365961474293414</v>
+        <v>1.270317396514258</v>
       </c>
       <c r="N22">
-        <v>2.130327645275216</v>
+        <v>1.194668664936273</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6532607107407955</v>
+        <v>1.852147404857703</v>
       </c>
       <c r="C23">
-        <v>0.1775808976678377</v>
+        <v>0.5333565683790198</v>
       </c>
       <c r="D23">
-        <v>0.05615607635110997</v>
+        <v>0.03275247098870437</v>
       </c>
       <c r="E23">
-        <v>0.1747768788225343</v>
+        <v>0.5006824962413461</v>
       </c>
       <c r="F23">
-        <v>1.567289300948943</v>
+        <v>1.872923272750342</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.048924247357604</v>
+        <v>0.9600229408072778</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8151255790032224</v>
+        <v>2.34930404153738</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4241008248648797</v>
+        <v>1.218985930031224</v>
       </c>
       <c r="N23">
-        <v>2.133288793090955</v>
+        <v>1.197832953291112</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5807417307613321</v>
+        <v>1.569112167221277</v>
       </c>
       <c r="C24">
-        <v>0.1567468996993853</v>
+        <v>0.4499206901422781</v>
       </c>
       <c r="D24">
-        <v>0.0562711771759119</v>
+        <v>0.0345259280091792</v>
       </c>
       <c r="E24">
-        <v>0.1558215386016499</v>
+        <v>0.4213973734012413</v>
       </c>
       <c r="F24">
-        <v>1.523977858088699</v>
+        <v>1.655525487717128</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.034705000452433</v>
+        <v>0.8745108956048426</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7232281735190895</v>
+        <v>1.988072971032466</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3770919008587299</v>
+        <v>1.028808343875419</v>
       </c>
       <c r="N24">
-        <v>2.145665276436716</v>
+        <v>1.214634260853003</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5033865067819079</v>
+        <v>1.271692959506595</v>
       </c>
       <c r="C25">
-        <v>0.134523623584613</v>
+        <v>0.3630732197762256</v>
       </c>
       <c r="D25">
-        <v>0.05638972030311606</v>
+        <v>0.03643376273378962</v>
       </c>
       <c r="E25">
-        <v>0.1356904722248728</v>
+        <v>0.3396459313289668</v>
       </c>
       <c r="F25">
-        <v>1.480270782167182</v>
+        <v>1.435668467840856</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.021194050073603</v>
+        <v>0.7901689464714963</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6252019211409561</v>
+        <v>1.6094184093254</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3270444468714686</v>
+        <v>0.830899264154624</v>
       </c>
       <c r="N25">
-        <v>2.161484806251352</v>
+        <v>1.241801855896441</v>
       </c>
       <c r="O25">
         <v>0</v>
